--- a/data/exports/fct_portfolio_pnl.xlsx
+++ b/data/exports/fct_portfolio_pnl.xlsx
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>258500.4599999999</v>
+        <v>258500.46</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>34705.646</v>
       </c>
       <c r="M2" t="n">
-        <v>258500.4599999999</v>
+        <v>258500.46</v>
       </c>
       <c r="N2" t="n">
-        <v>258120.0084129709</v>
+        <v>258120.0084129708</v>
       </c>
       <c r="O2" t="n">
-        <v>223414.3624129709</v>
+        <v>223414.3624129708</v>
       </c>
       <c r="P2" t="n">
         <v>177.4196705559368</v>
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>177.1585507295614</v>
+        <v>177.1585507295613</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001471763675117405</v>
+        <v>0.001471763675117404</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9985282363248831</v>
+        <v>0.9985282363248825</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8642706570540371</v>
+        <v>0.8642706570540372</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>716</v>
+        <v>1140</v>
       </c>
       <c r="AA2" t="n">
         <v>174</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.437406824612079</v>
+        <v>7.437406824612077</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
         <v>140404.68</v>
       </c>
       <c r="F3" t="n">
-        <v>7740.43</v>
+        <v>7740.429999999999</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>836425.4</v>
       </c>
       <c r="F4" t="n">
-        <v>84780.07000000001</v>
+        <v>84780.06999999999</v>
       </c>
       <c r="G4" t="n">
         <v>9357.459999999999</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0002695395723226646</v>
+        <v>0.0002695395723226645</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0.9997304604276773</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7624469053905758</v>
+        <v>0.7624469053905757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>408</v>
+        <v>547</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>1579</v>
       </c>
       <c r="E7" t="n">
-        <v>2545370.779999999</v>
+        <v>2545370.780000001</v>
       </c>
       <c r="F7" t="n">
-        <v>340922.62</v>
+        <v>340922.6199999999</v>
       </c>
       <c r="G7" t="n">
         <v>95363.36000000002</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>496462.9100000001</v>
+        <v>496462.91</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>508.2833202709303</v>
+        <v>508.2833202709305</v>
       </c>
       <c r="L7" t="n">
-        <v>52107.25100000001</v>
+        <v>52107.251</v>
       </c>
       <c r="M7" t="n">
-        <v>496462.9100000001</v>
+        <v>496462.91</v>
       </c>
       <c r="N7" t="n">
-        <v>495954.6266797294</v>
+        <v>495954.6266797292</v>
       </c>
       <c r="O7" t="n">
-        <v>443847.3756797293</v>
+        <v>443847.3756797291</v>
       </c>
       <c r="P7" t="n">
         <v>209.6549451013514</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>209.4402984289398</v>
+        <v>209.4402984289397</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9989761907485279</v>
+        <v>0.9989761907485277</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8940192041329514</v>
+        <v>0.8940192041329513</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>835</v>
+        <v>2003</v>
       </c>
       <c r="AA7" t="n">
         <v>69</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.517958003190945</v>
+        <v>9.517958003190941</v>
       </c>
     </row>
     <row r="8">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>9008.424499999999</v>
+        <v>9008.424500000001</v>
       </c>
       <c r="M8" t="n">
         <v>17472.51</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4844229878821074</v>
+        <v>0.4844229878821072</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.93957445056014</v>
+        <v>1.939574450560139</v>
       </c>
     </row>
     <row r="9">
@@ -1242,13 +1242,13 @@
         <v>30.43612696233116</v>
       </c>
       <c r="L9" t="n">
-        <v>41511.60550000001</v>
+        <v>41511.6055</v>
       </c>
       <c r="M9" t="n">
         <v>231028.51</v>
       </c>
       <c r="N9" t="n">
-        <v>230998.0738730377</v>
+        <v>230998.0738730376</v>
       </c>
       <c r="O9" t="n">
         <v>189486.4683730376</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>213.8871054379979</v>
+        <v>213.8871054379978</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0.9998682581341916</v>
       </c>
       <c r="W9" t="n">
-        <v>0.820186514526011</v>
+        <v>0.8201865145260109</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>556</v>
+        <v>1062</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>813.3200000000001</v>
+        <v>813.3199999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>813.3200000000001</v>
+        <v>813.3199999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>813.3200000000001</v>
+        <v>813.3199999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>813.3200000000001</v>
+        <v>813.3199999999999</v>
       </c>
       <c r="P10" t="n">
         <v>203.33</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>31374.72</v>
+        <v>31374.71999999999</v>
       </c>
       <c r="F11" t="n">
         <v>3349.02</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4404.94</v>
+        <v>4404.940000000001</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>345.3554999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>4404.94</v>
+        <v>4404.940000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>4404.94</v>
+        <v>4404.940000000001</v>
       </c>
       <c r="O11" t="n">
         <v>4059.5845</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>2131826.73</v>
       </c>
       <c r="F12" t="n">
-        <v>301217.2200000001</v>
+        <v>301217.22</v>
       </c>
       <c r="G12" t="n">
-        <v>76912.55</v>
+        <v>76912.54999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>426526.265</v>
       </c>
       <c r="N12" t="n">
-        <v>426450.1746825942</v>
+        <v>426450.1746825941</v>
       </c>
       <c r="O12" t="n">
         <v>398965.4121825942</v>
       </c>
       <c r="P12" t="n">
-        <v>198.6544228993537</v>
+        <v>198.6544228993536</v>
       </c>
       <c r="Q12" t="n">
         <v>1.735556325023084</v>
@@ -1531,13 +1531,13 @@
         <v>196.8837371572457</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008736560201845527</v>
+        <v>0.008736560201845529</v>
       </c>
       <c r="T12" t="n">
         <v>0.0001768368233244308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9912634397981542</v>
+        <v>0.9912634397981546</v>
       </c>
       <c r="V12" t="n">
         <v>0.99108660297483</v>
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="Z12" t="n">
-        <v>251</v>
+        <v>1936</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4709.8005</v>
+        <v>4709.800499999999</v>
       </c>
       <c r="M13" t="n">
         <v>25373.01</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>1416491.64</v>
       </c>
       <c r="F14" t="n">
-        <v>168572.5399999999</v>
+        <v>168572.54</v>
       </c>
       <c r="G14" t="n">
         <v>14593.14</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>30.43612696233115</v>
+        <v>30.43612696233116</v>
       </c>
       <c r="L14" t="n">
         <v>26487.1225</v>
@@ -1699,7 +1699,7 @@
         <v>208399.5238730377</v>
       </c>
       <c r="O14" t="n">
-        <v>181912.4013730377</v>
+        <v>181912.4013730376</v>
       </c>
       <c r="P14" t="n">
         <v>183.8006701940035</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9998539743184602</v>
+        <v>0.99985397431846</v>
       </c>
       <c r="W14" t="n">
         <v>0.8727747266901441</v>
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>157</v>
+        <v>1111</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.867956357774902</v>
+        <v>7.867956357774901</v>
       </c>
     </row>
     <row r="15">
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.535795727022716</v>
+        <v>7.535795727022715</v>
       </c>
     </row>
   </sheetData>
